--- a/biology/Botanique/Pseudognaphalium_undulatum/Pseudognaphalium_undulatum.xlsx
+++ b/biology/Botanique/Pseudognaphalium_undulatum/Pseudognaphalium_undulatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gnaphale ondulé, Cotonnière ondulée
 Pseudognaphalium undulatum, le Gnaphale ondulé ou Cotonnière ondulée, est une espèce de plantes à fleurs de la famille des Asteraceae (ou Composées) originaire d'Afrique.
@@ -512,13 +524,15 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Antennaria undulata (L.) R.Br.
 Gnaphalium undulatum L.
 Gnaphalium oligandrum
 Gnaphalium steudelii
-Helichrysum steudelii[1]
+Helichrysum steudelii
 Helichrysum decurrens Moench
 Helichrysum montosicola Gand.</t>
         </is>
@@ -548,7 +562,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plante herbacée annuelle, haute de 60 à 80 cm
 Tiges et feuilles, finement velues, blanc grisâtre
@@ -581,7 +597,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Gnaphale ondulé est originaire d'Afrique du Sud, d'Angola et du Botswana. L'espèce a été introduite en Europe (France, Italie, Belgique) où elle peut devenir envahissante.
 </t>
@@ -612,7 +630,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Collines herbeuses et terrains vagues jusqu'à une altitude de 200 m.
 </t>
